--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karim/Desktop/inventory_from_excel_file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karim/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A79A740D-255B-8A41-A5DB-5056C6C3C1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5DCF8A-EB12-6449-9BCE-CFDE912E0162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{BBEA5503-D90E-6244-B4DA-C02703E62C4B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" xr2:uid="{BBEA5503-D90E-6244-B4DA-C02703E62C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -46,13 +46,13 @@
     <t>web_servers</t>
   </si>
   <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
     <t>db_servers</t>
   </si>
   <si>
-    <t>192.168.1.2</t>
+    <t>web1</t>
+  </si>
+  <si>
+    <t>db1</t>
   </si>
 </sst>
 </file>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32942CD3-49F8-AA40-99EC-B0B5B4F033A8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,12 +437,12 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
